--- a/docs.xlsx
+++ b/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcd\go\src\gits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D0D037-D37D-4BA7-8657-5DD4462E9A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E8F50-06F8-41FE-B795-780A4EDBA4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5203447B-AAE2-4C23-A443-E126FBD2E699}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>author</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>publisher_id</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>sanjani</t>
   </si>
 </sst>
 </file>
@@ -422,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66729B0B-6D05-481F-8F72-BEAE0D0A8CD4}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,28 +443,55 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -466,7 +502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -480,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -494,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -508,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -522,12 +558,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -535,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
